--- a/biology/Médecine/Camille-Melchior_Gibert/Camille-Melchior_Gibert.xlsx
+++ b/biology/Médecine/Camille-Melchior_Gibert/Camille-Melchior_Gibert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Camille-Melchior Gibert, né le 18 août 1797 à Paris, mort le 30 juillet 1866 à Paris[1],[2], est un dermatologue français, connu pour avoir décrit la maladie de Gibert.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Camille-Melchior Gibert, né le 18 août 1797 à Paris, mort le 30 juillet 1866 à Paris est un dermatologue français, connu pour avoir décrit la maladie de Gibert.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gibert fait son internat de médecine à l'hôpital Saint-Louis à Paris où il est entre 1818 et 1819 l'interne de Laurent-Théodore Biett (1781-1840). Il obtient le titre de docteur en 1822 puis devient agrégé en 1824 à la faculté de médecine de Paris. L'année suivante, il obtient la médaille d'or par la Société de médecine pratique pour une de ses publications. Il exerce ensuite en tant que dermatologue à l'hôpital Saint-Louis, et enseigne la dermatologie à partir de 1827[1],[2].
-A l'ouverture de l'hôpital de Lourcine en janvier 1836, Gibert devient un des premiers médecins à y exercer[2].
-Il donne la première description précise d'un pityriasis qu'il nomma pityriasis rosea et qu'on appelle couramment « pityriasis rosé de Gibert » ou « maladie de Gibert ». Son ouvrage le plus connu sur les maladies de la peau est un livre intitulé Traité pratique des maladies spéciales de la peau[1].
-En 1859, avec Joseph-Alexandre Auzias-Turenne (1812-1870), Gibert prit part à une expérience controversée dans laquelle des patients humains furent délibérément infectés de syphilis en vue de prouver la nature infectieuse de la syphilis secondaire[1].
-Il est élu membre de l'Académie de médecine en 1847 puis secrétaire de 1849 à 1854[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gibert fait son internat de médecine à l'hôpital Saint-Louis à Paris où il est entre 1818 et 1819 l'interne de Laurent-Théodore Biett (1781-1840). Il obtient le titre de docteur en 1822 puis devient agrégé en 1824 à la faculté de médecine de Paris. L'année suivante, il obtient la médaille d'or par la Société de médecine pratique pour une de ses publications. Il exerce ensuite en tant que dermatologue à l'hôpital Saint-Louis, et enseigne la dermatologie à partir de 1827,.
+A l'ouverture de l'hôpital de Lourcine en janvier 1836, Gibert devient un des premiers médecins à y exercer.
+Il donne la première description précise d'un pityriasis qu'il nomma pityriasis rosea et qu'on appelle couramment « pityriasis rosé de Gibert » ou « maladie de Gibert ». Son ouvrage le plus connu sur les maladies de la peau est un livre intitulé Traité pratique des maladies spéciales de la peau.
+En 1859, avec Joseph-Alexandre Auzias-Turenne (1812-1870), Gibert prit part à une expérience controversée dans laquelle des patients humains furent délibérément infectés de syphilis en vue de prouver la nature infectieuse de la syphilis secondaire.
+Il est élu membre de l'Académie de médecine en 1847 puis secrétaire de 1849 à 1854.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Considérations générales sur les maladies de la peau, In-8° , 7 p., Paris : impr. de Cosson, 1843 ;
 Cours de M. Gibert à l'hôpital St-Louis, maladies de la peau, diagnostic et thérapeutique, 28 p., Édition : Paris : impr. de Moquet et Hauquelin, 1843 ;
